--- a/docentes/Santiago Hernández Mariana - Estadisticos 20202.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>Mat</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>ALISSON FERNANDA</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
   </si>
   <si>
     <t>MARCO JOSAFAT</t>
@@ -1007,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,13 +1321,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920278</v>
+        <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -1341,13 +1344,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920144</v>
+        <v>20330051920278</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -1356,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1364,13 +1367,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920320</v>
+        <v>20330051920144</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -1379,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1387,13 +1390,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920335</v>
+        <v>20330051920320</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
@@ -1405,6 +1408,29 @@
         <v>12</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920335</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Santiago Hernández Mariana - Estadisticos 20202.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>Mat</t>
   </si>
@@ -79,42 +79,69 @@
     <t>ESTEVEZ</t>
   </si>
   <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>BENITEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>OCAÑA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
     <t>LIMON</t>
   </si>
   <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>OCAÑA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>DE LA ROSA</t>
   </si>
   <si>
@@ -127,36 +154,63 @@
     <t>MORENO</t>
   </si>
   <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
     <t>REYES</t>
   </si>
   <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
     <t>BASILIO</t>
   </si>
   <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>CASTRO</t>
   </si>
   <si>
@@ -169,43 +223,70 @@
     <t>ERICK DE JESUS</t>
   </si>
   <si>
+    <t>SHADAI COSTANTIN</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
     <t>AXEL YAEL</t>
   </si>
   <si>
+    <t>XOCHITL JOSELINE</t>
+  </si>
+  <si>
+    <t>GERMAN ERNESTO</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>OZIEL</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
+    <t>ALISSON FERNANDA</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
     <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>OZIEL</t>
-  </si>
-  <si>
-    <t>JAVIER ANTONIO</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>AMARELY GUADALUPE</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>ALISSON FERNANDA</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
   </si>
   <si>
     <t>ALONDRA</t>
@@ -1010,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,10 +1132,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1068,22 +1149,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920279</v>
+        <v>20330051920203</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1091,22 +1172,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920131</v>
+        <v>20330051920213</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1114,22 +1195,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920389</v>
+        <v>20330051920261</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1137,22 +1218,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920326</v>
+        <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1160,22 +1241,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920328</v>
+        <v>20330051920267</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1183,22 +1264,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920330</v>
+        <v>20330051920279</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1206,22 +1287,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920332</v>
+        <v>20330051920117</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1229,183 +1310,183 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920191</v>
+        <v>20330051920134</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920198</v>
+        <v>20330051920389</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920200</v>
+        <v>20330051920148</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920218</v>
+        <v>20330051920326</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920273</v>
+        <v>20330051920328</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920278</v>
+        <v>20330051920330</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920144</v>
+        <v>20330051920332</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920320</v>
+        <v>20330051920191</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1413,24 +1494,231 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <v>20330051920198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920273</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920278</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18202030110266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920320</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
         <v>20330051920335</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G27">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Santiago Hernández Mariana - Estadisticos 20202.xlsx
+++ b/docentes/Santiago Hernández Mariana - Estadisticos 20202.xlsx
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -857,7 +857,7 @@
         <v>51.61</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -871,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -883,7 +883,7 @@
         <v>66.67</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -923,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>56.52</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>87.09999999999999</v>
+        <v>77.42</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>86.95999999999999</v>
+        <v>82.61</v>
       </c>
       <c r="H5">
         <v>6.7</v>
